--- a/biology/Zoologie/Chevrotain_aquatique/Chevrotain_aquatique.xlsx
+++ b/biology/Zoologie/Chevrotain_aquatique/Chevrotain_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyemoschus aquaticus
 Le chevrotain aquatique ou biche-cochon (Hyemoschus aquaticus) désigne une espèce de la famille des chevrotains (Tragulidae) que l'on rencontre en Afrique et seule représentante du genre Hyemoschus.
@@ -512,7 +524,9 @@
           <t>Description générale[1],[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une taille à l'âge adulte de 60 à 110 cm de longueur totale (dont une queue très courte dépassant rarement 15 cm de long). Le poids varie entre 6 et 17 kg, avec des individus mâles généralement plus légers (dimorphisme sexuel). En effet, ils font en moyenne une dizaine de kg contre douze pour les femelles. La hauteur au garrot est de 30 à 40 cm. 
 Le corps est compact, porté par des pattes fines et élancées. L'encolure est courte, la tête petite et étroite et les yeux grands. L'animal possède un nez caoutchouteux, avec des narines fendues pouvant se fermer en immersion . Le menton, la gorge et la poitrine sont couverts de poils rudes et marqué d’un « V » inversé blanc. Si aucun des deux sexes n'a de bois, les canines sont utiles pour capturer les poissons et se défendre , assez peu visibles chez les femelles, mais pouvant dépasser des lèvres chez les mâles. Les pieds rappellent des pieds de cochon. Ses pattes  palmées avec des doigts développés, lui permettent une nage assez efficace, utile aussi pour distancer un prédateur. Le pelage est lisse, brun rougeâtre, avec des rayures et taches blanches longitudinales et il serait impliqué dans la flottabilité de l'animal grâce à une substance isolante .
@@ -548,7 +562,9 @@
           <t>Distribution (Répartition et Habitat)[1],[2],[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chevrotain aquatique a vu ses populations drastiquement diminuer ces dernières décennies. C'est une espèce relativement endémique de certaines zones d'Afrique de l'Ouest subsaharienne et d'une partie du bassin congolais. Les deux grands groupes (super populations) seraient d'ailleurs assez séparés aujourd'hui. Celui de gauche serait surtout dans la partie sud de la Guinée au Ghana, et l'autre, plus à l'Est et au Sud, formerait un large rectangle, du Cameroun à l'Ouganda et de l'Angola à l'Ouest tanzanien. 
 Pour ne citer que cet exemple, l'espèce était avant relativement présente en forêt humide côtière en Côte d'Ivoire, notamment depuis Sassandra jusqu'au Liberia. Aujourd'hui, les individus sont très rares hors des réserves, et mêmes au sein des aires protégées. L'espèce est aujourd'hui considérée comme de préoccupation limitée en termes de conservation, cela est notamment dû à un besoin de données scientifiques sourcées récentes.
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
